--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Wnt7b-Fzd10.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Wnt7b-Fzd10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>FAPs</t>
   </si>
   <si>
     <t>sCs</t>
@@ -440,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -513,10 +516,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -525,49 +528,235 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.457775918943849</v>
+        <v>0.072919</v>
       </c>
       <c r="H2">
-        <v>0.457775918943849</v>
+        <v>0.218757</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.1016383815134179</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.1016383815134179</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.0289594489366172</v>
+        <v>0.005445666666666667</v>
       </c>
       <c r="N2">
-        <v>0.0289594489366172</v>
+        <v>0.016337</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.1561347172047327</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.1561347172047327</v>
       </c>
       <c r="Q2">
-        <v>0.01325693834906741</v>
+        <v>0.0003970925676666667</v>
       </c>
       <c r="R2">
-        <v>0.01325693834906741</v>
+        <v>0.003573833109</v>
       </c>
       <c r="S2">
-        <v>1</v>
+        <v>0.01586927995474424</v>
       </c>
       <c r="T2">
-        <v>1</v>
+        <v>0.01586927995474424</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G3">
+        <v>0.072919</v>
+      </c>
+      <c r="H3">
+        <v>0.218757</v>
+      </c>
+      <c r="I3">
+        <v>0.1016383815134179</v>
+      </c>
+      <c r="J3">
+        <v>0.1016383815134179</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>0.02943233333333333</v>
+      </c>
+      <c r="N3">
+        <v>0.088297</v>
+      </c>
+      <c r="O3">
+        <v>0.8438652827952674</v>
+      </c>
+      <c r="P3">
+        <v>0.8438652827952673</v>
+      </c>
+      <c r="Q3">
+        <v>0.002146176314333333</v>
+      </c>
+      <c r="R3">
+        <v>0.019315586829</v>
+      </c>
+      <c r="S3">
+        <v>0.0857691015586737</v>
+      </c>
+      <c r="T3">
+        <v>0.08576910155867369</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0.6445166666666666</v>
+      </c>
+      <c r="H4">
+        <v>1.93355</v>
+      </c>
+      <c r="I4">
+        <v>0.8983616184865821</v>
+      </c>
+      <c r="J4">
+        <v>0.898361618486582</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.005445666666666667</v>
+      </c>
+      <c r="N4">
+        <v>0.016337</v>
+      </c>
+      <c r="O4">
+        <v>0.1561347172047327</v>
+      </c>
+      <c r="P4">
+        <v>0.1561347172047327</v>
+      </c>
+      <c r="Q4">
+        <v>0.003509822927777778</v>
+      </c>
+      <c r="R4">
+        <v>0.03158840635</v>
+      </c>
+      <c r="S4">
+        <v>0.1402654372499885</v>
+      </c>
+      <c r="T4">
+        <v>0.1402654372499884</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.6445166666666666</v>
+      </c>
+      <c r="H5">
+        <v>1.93355</v>
+      </c>
+      <c r="I5">
+        <v>0.8983616184865821</v>
+      </c>
+      <c r="J5">
+        <v>0.898361618486582</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.02943233333333333</v>
+      </c>
+      <c r="N5">
+        <v>0.088297</v>
+      </c>
+      <c r="O5">
+        <v>0.8438652827952674</v>
+      </c>
+      <c r="P5">
+        <v>0.8438652827952673</v>
+      </c>
+      <c r="Q5">
+        <v>0.01896962937222222</v>
+      </c>
+      <c r="R5">
+        <v>0.17072666435</v>
+      </c>
+      <c r="S5">
+        <v>0.7580961812365937</v>
+      </c>
+      <c r="T5">
+        <v>0.7580961812365936</v>
       </c>
     </row>
   </sheetData>
